--- a/KeHoachThucHienDeTaiTLCN.xlsx
+++ b/KeHoachThucHienDeTaiTLCN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Năm cuối\Học kỳ 7\Tiểu Luận Chuyên Ngành\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAn\TieuLuanChuyenNganh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1648F6D-9B04-4DD3-8692-16D0226F0166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
   <si>
     <t>STT</t>
   </si>
@@ -217,12 +216,15 @@
   </si>
   <si>
     <t>Tìm hiểu, nắm rõ được các kiến thức căn bản về các công nghệ lập trình được sử dụng để thực hiện đề tài như : .Net Core, Angular,…....</t>
+  </si>
+  <si>
+    <t>23/9/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -625,11 +627,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -758,8 +760,8 @@
       <c r="H9" s="4">
         <v>43960</v>
       </c>
-      <c r="I9" s="4">
-        <v>44113</v>
+      <c r="I9" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="J9" s="2"/>
     </row>

--- a/KeHoachThucHienDeTaiTLCN.xlsx
+++ b/KeHoachThucHienDeTaiTLCN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAn\TieuLuanChuyenNganh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ \"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
   <si>
     <t>STT</t>
   </si>
@@ -80,18 +80,12 @@
     <t>Vẽ và thiết kê mô hình ERD cho CSDL chung của hệ thống</t>
   </si>
   <si>
-    <t>19/9/2020</t>
-  </si>
-  <si>
     <t>Tạo CSDL và thêm dữ liệu</t>
   </si>
   <si>
     <t>Xây dựng hệ thống CSDL đầy đủ</t>
   </si>
   <si>
-    <t>18/9/2020</t>
-  </si>
-  <si>
     <t>27/09/2020</t>
   </si>
   <si>
@@ -203,9 +197,6 @@
     <t>21/09/2020</t>
   </si>
   <si>
-    <t>22/9/2020</t>
-  </si>
-  <si>
     <t>Viết đặc tả và xây dựng requirement định hướng cho các chức năng của hệ thống</t>
   </si>
   <si>
@@ -216,9 +207,6 @@
   </si>
   <si>
     <t>Tìm hiểu, nắm rõ được các kiến thức căn bản về các công nghệ lập trình được sử dụng để thực hiện đề tài như : .Net Core, Angular,…....</t>
-  </si>
-  <si>
-    <t>23/9/2020</t>
   </si>
 </sst>
 </file>
@@ -630,26 +618,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
@@ -663,7 +651,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -677,7 +665,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -691,7 +679,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -703,7 +691,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -735,7 +723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -752,20 +740,20 @@
         <v>15</v>
       </c>
       <c r="F9" s="4">
-        <v>43960</v>
+        <v>44079</v>
       </c>
       <c r="G9" s="4">
-        <v>44021</v>
+        <v>44081</v>
       </c>
       <c r="H9" s="4">
-        <v>43960</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>64</v>
+        <v>44079</v>
+      </c>
+      <c r="I9" s="4">
+        <v>44097</v>
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -782,76 +770,86 @@
         <v>15</v>
       </c>
       <c r="F10" s="4">
-        <v>44144</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>18</v>
+        <v>44085</v>
+      </c>
+      <c r="G10" s="4">
+        <v>44093</v>
       </c>
       <c r="H10" s="4">
-        <v>44174</v>
-      </c>
-      <c r="I10" s="2"/>
+        <v>44086</v>
+      </c>
+      <c r="I10" s="4">
+        <v>44093</v>
+      </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>21</v>
+      <c r="F11" s="4">
+        <v>44092</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="H11" s="4">
+        <v>44092</v>
+      </c>
+      <c r="I11" s="4">
+        <v>44101</v>
+      </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>21</v>
+      <c r="F12" s="4">
+        <v>44092</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="H12" s="4">
+        <v>44092</v>
+      </c>
+      <c r="I12" s="4">
+        <v>44116</v>
+      </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>15</v>
@@ -859,73 +857,85 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>59</v>
+      <c r="F13" s="4">
+        <v>44096</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="H13" s="4">
+        <v>44099</v>
+      </c>
+      <c r="I13" s="4">
+        <v>44119</v>
+      </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>59</v>
+      <c r="F14" s="4">
+        <v>44096</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="H14" s="4">
+        <v>44105</v>
+      </c>
+      <c r="I14" s="4">
+        <v>44112</v>
+      </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="H15" s="4">
+        <v>44105</v>
+      </c>
+      <c r="I15" s="4">
+        <v>44157</v>
+      </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="78" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
@@ -934,48 +944,56 @@
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G16" s="4">
-        <v>43840</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+        <v>44105</v>
+      </c>
+      <c r="H16" s="4">
+        <v>44102</v>
+      </c>
+      <c r="I16" s="4">
+        <v>44105</v>
+      </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>9</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G17" s="4">
-        <v>43931</v>
-      </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+        <v>44108</v>
+      </c>
+      <c r="H17" s="4">
+        <v>44116</v>
+      </c>
+      <c r="I17" s="4">
+        <v>44132</v>
+      </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>10</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>15</v>
@@ -984,24 +1002,28 @@
         <v>15</v>
       </c>
       <c r="F18" s="4">
-        <v>43961</v>
+        <v>44109</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="H18" s="4">
+        <v>44124</v>
+      </c>
+      <c r="I18" s="4">
+        <v>44155</v>
+      </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>15</v>
@@ -1010,48 +1032,56 @@
         <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G19" s="4">
-        <v>44054</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+        <v>44143</v>
+      </c>
+      <c r="H19" s="4">
+        <v>44124</v>
+      </c>
+      <c r="I19" s="4">
+        <v>44131</v>
+      </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="4">
-        <v>44085</v>
+        <v>44144</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="H20" s="4">
+        <v>44132</v>
+      </c>
+      <c r="I20" s="4">
+        <v>44138</v>
+      </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>15</v>
@@ -1060,74 +1090,86 @@
         <v>15</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="H21" s="4">
+        <v>44152</v>
+      </c>
+      <c r="I21" s="4">
+        <v>44159</v>
+      </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>14</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="4">
+        <v>44160</v>
+      </c>
+      <c r="I22" s="4">
+        <v>44166</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>15</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="H23" s="4">
+        <v>44167</v>
+      </c>
+      <c r="I23" s="4">
+        <v>44175</v>
+      </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>15</v>
@@ -1136,13 +1178,17 @@
         <v>15</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="H24" s="4">
+        <v>44179</v>
+      </c>
+      <c r="I24" s="4">
+        <v>44188</v>
+      </c>
       <c r="J24" s="2"/>
     </row>
   </sheetData>
